--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,13 +63,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -84,9 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +99,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,66 +107,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -185,6 +123,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -199,8 +175,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,79 +215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +245,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +329,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,55 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,6 +429,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,6 +466,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -450,15 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,35 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1696,17 +1696,17 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B10">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C10,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スライム</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1723,17 +1723,17 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B11">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C11,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ホーネット</v>
       </c>
       <c r="E11">
         <v>3</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,27 +59,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,27 +84,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,17 +137,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,9 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +174,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,19 +215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +233,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,19 +287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,13 +305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +335,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,73 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,15 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,11 +424,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,10 +1439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="B11">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="B12">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1777,20 +1777,20 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="B13">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スライム</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1804,20 +1804,20 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="B14">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ホーネット</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1831,23 +1831,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="B15">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スライム</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1858,20 +1858,20 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1101</v>
+        <v>1052</v>
       </c>
       <c r="B16">
-        <v>1101</v>
+        <v>1052</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
-        <v>ベヒーモス</v>
+        <v>ホーネット</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1885,20 +1885,20 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2041</v>
+        <v>1101</v>
       </c>
       <c r="B17">
-        <v>2041</v>
+        <v>1101</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ベヒーモス</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1918,17 +1918,17 @@
         <v>2041</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スパイダー</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1945,11 +1945,11 @@
         <v>2041</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>バット</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1966,23 +1966,23 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B20">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>インプ</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1999,17 +1999,17 @@
         <v>2042</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ゴースト</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2026,11 +2026,11 @@
         <v>2042</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>バット</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2047,23 +2047,23 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="B23">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="C23">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>インプ</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2080,17 +2080,17 @@
         <v>2101</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2101,23 +2101,23 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B25">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2134,17 +2134,17 @@
         <v>2102</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C26,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2155,26 +2155,26 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>2201</v>
+        <v>2102</v>
       </c>
       <c r="B27">
-        <v>2201</v>
+        <v>2102</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2188,20 +2188,20 @@
         <v>2201</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C28,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2242,11 +2242,11 @@
         <v>2201</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C30,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2269,11 +2269,11 @@
         <v>2201</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2285,34 +2285,34 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B32">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スパイダー</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2323,20 +2323,20 @@
         <v>2202</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C33,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2377,11 +2377,11 @@
         <v>2202</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ホーネット</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2404,11 +2404,11 @@
         <v>2202</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C36,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2420,34 +2420,34 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B37">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ホーネット</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2458,20 +2458,20 @@
         <v>2203</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C38,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2512,11 +2512,11 @@
         <v>2203</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スネーク</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2539,11 +2539,11 @@
         <v>2203</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C41,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2555,34 +2555,34 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B42">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>スネーク</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2593,20 +2593,20 @@
         <v>2204</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C43,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2647,11 +2647,11 @@
         <v>2204</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2674,11 +2674,11 @@
         <v>2204</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C46,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2690,34 +2690,34 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B47">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C47,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>インプ</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2728,20 +2728,20 @@
         <v>2205</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C48,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         <v>2205</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2809,11 +2809,11 @@
         <v>2205</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C51,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2825,34 +2825,34 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>3041</v>
+        <v>2205</v>
       </c>
       <c r="B52">
-        <v>3041</v>
+        <v>2205</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C52,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>バット</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2863,20 +2863,20 @@
         <v>3041</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
-        <v>オーク</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2890,11 +2890,11 @@
         <v>3041</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>オーク</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2917,11 +2917,11 @@
         <v>3041</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C55,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2938,23 +2938,23 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B56">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C56,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2971,17 +2971,17 @@
         <v>3042</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2998,11 +2998,11 @@
         <v>3042</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スケルトン</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3025,11 +3025,11 @@
         <v>3042</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C59,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>スネーク</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -3046,26 +3046,26 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="B60">
-        <v>3101</v>
+        <v>3042</v>
       </c>
       <c r="C60">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C60,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>スケルトン</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3079,20 +3079,20 @@
         <v>3101</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>シルフ</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3106,11 +3106,11 @@
         <v>3101</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スライム</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B63">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="D63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C63,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3160,20 +3160,20 @@
         <v>3102</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C64,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>シルフ</v>
       </c>
       <c r="E64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3187,11 +3187,11 @@
         <v>3102</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スライム</v>
       </c>
       <c r="E65">
         <v>15</v>
@@ -3200,40 +3200,40 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="12" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66">
-        <v>4041</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4041</v>
+        <v>3102</v>
+      </c>
+      <c r="B66">
+        <v>3102</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" ht="12" customHeight="1" spans="1:8">
       <c r="A67">
         <v>4041</v>
       </c>
@@ -3241,17 +3241,17 @@
         <v>4041</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C67,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3295,11 +3295,11 @@
         <v>4041</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C69,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>スライム</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3342,27 +3342,27 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="2">
-        <v>4042</v>
+      <c r="A71">
+        <v>4041</v>
       </c>
       <c r="B71" s="2">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C71,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ゴースト</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3376,20 +3376,20 @@
         <v>4042</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C72,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>ホーネット</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3403,11 +3403,11 @@
         <v>4042</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C73,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -3457,11 +3457,11 @@
         <v>4042</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C75,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>インプ</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3470,31 +3470,31 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76">
-        <v>4101</v>
-      </c>
-      <c r="B76">
-        <v>4101</v>
+      <c r="A76" s="2">
+        <v>4042</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4042</v>
       </c>
       <c r="C76">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C76,[1]TextData!A:A))</f>
-        <v>イヴィルキング</v>
+        <v>ホーネット</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B77">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="C77">
         <v>104</v>
@@ -3518,7 +3518,7 @@
         <v>イヴィルキング</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3532,20 +3532,20 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="B78">
-        <v>5041</v>
+        <v>4102</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C78,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>イヴィルキング</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3572,13 +3572,13 @@
         <v>スケルトン</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3619,11 +3619,11 @@
         <v>5041</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C81,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スケルトン</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3666,24 +3666,24 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="2">
-        <v>5042</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5042</v>
+      <c r="A83">
+        <v>5041</v>
+      </c>
+      <c r="B83">
+        <v>5041</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>スライム</v>
       </c>
       <c r="E83">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3700,20 +3700,20 @@
         <v>5042</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3727,11 +3727,11 @@
         <v>5042</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -3754,11 +3754,11 @@
         <v>5042</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C86,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>インプ</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3801,27 +3801,27 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88">
-        <v>5101</v>
-      </c>
-      <c r="B88">
-        <v>5101</v>
+      <c r="A88" s="2">
+        <v>5042</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5042</v>
       </c>
       <c r="C88">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="D88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3835,20 +3835,20 @@
         <v>5101</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3862,11 +3862,11 @@
         <v>5101</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -3889,11 +3889,11 @@
         <v>5101</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3916,11 +3916,11 @@
         <v>5101</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -3937,26 +3937,26 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B93">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="C93">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>ゴースト</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3970,20 +3970,20 @@
         <v>5102</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3997,11 +3997,11 @@
         <v>5102</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -4024,11 +4024,11 @@
         <v>5102</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -4051,11 +4051,11 @@
         <v>5102</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -4072,26 +4072,26 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="B98">
-        <v>6021</v>
+        <v>5102</v>
       </c>
       <c r="C98">
-        <v>1002</v>
+        <v>11</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
-        <v>エリザベート</v>
+        <v>ゴースト</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4105,20 +4105,20 @@
         <v>6021</v>
       </c>
       <c r="C99">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
-        <v>アリエス</v>
+        <v>エリザベート</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         <v>6021</v>
       </c>
       <c r="C100">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
-        <v>シイナ</v>
+        <v>アリエス</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4159,11 +4159,11 @@
         <v>6021</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>1004</v>
       </c>
       <c r="D101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>シイナ</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4186,11 +4186,11 @@
         <v>6021</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4207,23 +4207,23 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B103">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="C103">
-        <v>1011</v>
+        <v>1</v>
       </c>
       <c r="D103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
-        <v>セリナ</v>
+        <v>スライム</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4240,17 +4240,17 @@
         <v>6022</v>
       </c>
       <c r="C104">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
-        <v>レダ</v>
+        <v>セリナ</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4267,11 +4267,11 @@
         <v>6022</v>
       </c>
       <c r="C105">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
-        <v>メリアドール</v>
+        <v>レダ</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4294,11 +4294,11 @@
         <v>6022</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="D106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
-        <v>マッドプラント</v>
+        <v>メリアドール</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4321,11 +4321,11 @@
         <v>6022</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>マッドプラント</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4342,23 +4342,23 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="B108">
-        <v>6031</v>
+        <v>6022</v>
       </c>
       <c r="C108">
-        <v>1001</v>
+        <v>14</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
-        <v>ミカ</v>
+        <v>インプ</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4375,17 +4375,17 @@
         <v>6031</v>
       </c>
       <c r="C109">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
-        <v>リシェリ</v>
+        <v>ミカ</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4402,11 +4402,11 @@
         <v>6031</v>
       </c>
       <c r="C110">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
-        <v>マリーベル</v>
+        <v>リシェリ</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4429,11 +4429,11 @@
         <v>6031</v>
       </c>
       <c r="C111">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
-        <v>ユニ</v>
+        <v>マリーベル</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4456,11 +4456,11 @@
         <v>6031</v>
       </c>
       <c r="C112">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
-        <v>ナツキ</v>
+        <v>ユニ</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4477,26 +4477,26 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="B113">
-        <v>6101</v>
+        <v>6031</v>
       </c>
       <c r="C113">
-        <v>201</v>
+        <v>1009</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
-        <v>アンリマユ</v>
+        <v>ナツキ</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4510,20 +4510,20 @@
         <v>6101</v>
       </c>
       <c r="C114">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>アンリマユ</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4537,11 +4537,11 @@
         <v>6101</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4564,11 +4564,11 @@
         <v>6101</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ゴースト</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4591,22 +4591,49 @@
         <v>6101</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
+        <v>ビッグラット</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>6101</v>
+      </c>
+      <c r="B118">
+        <v>6101</v>
+      </c>
+      <c r="C118">
+        <v>13</v>
+      </c>
+      <c r="D118" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C118,[1]TextData!A:A))</f>
         <v>オーク</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,7 +70,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,22 +99,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,30 +136,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,13 +166,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,7 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,43 +215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +245,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +299,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,37 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,55 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,39 +425,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -474,11 +441,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,67 +514,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -583,76 +583,76 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,10 +1439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>スライム</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1777,17 +1777,17 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="B13">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ホーネット</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1804,17 +1804,17 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="B14">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スライム</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1831,23 +1831,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="B15">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ホーネット</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1858,20 +1858,20 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="B16">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ベヒーモス</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1885,20 +1885,20 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>1101</v>
+        <v>2041</v>
       </c>
       <c r="B17">
-        <v>1101</v>
+        <v>2041</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>ベヒーモス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1918,17 +1918,17 @@
         <v>2041</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>バット</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1945,11 +1945,11 @@
         <v>2041</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>インプ</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1966,23 +1966,23 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B20">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ゴースト</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1999,17 +1999,17 @@
         <v>2042</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>バット</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2026,11 +2026,11 @@
         <v>2042</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>インプ</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2047,23 +2047,23 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2042</v>
+        <v>2101</v>
       </c>
       <c r="B23">
-        <v>2042</v>
+        <v>2101</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2080,17 +2080,17 @@
         <v>2101</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2101,23 +2101,23 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B25">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2134,17 +2134,17 @@
         <v>2102</v>
       </c>
       <c r="C26">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C26,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2155,26 +2155,26 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>2102</v>
+        <v>2201</v>
       </c>
       <c r="B27">
-        <v>2102</v>
+        <v>2201</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2188,20 +2188,20 @@
         <v>2201</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C28,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2242,11 +2242,11 @@
         <v>2201</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C30,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2269,11 +2269,11 @@
         <v>2201</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2285,34 +2285,34 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B32">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2323,20 +2323,20 @@
         <v>2202</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C33,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ホーネット</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2377,11 +2377,11 @@
         <v>2202</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2404,11 +2404,11 @@
         <v>2202</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C36,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ホーネット</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2420,34 +2420,34 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B37">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2458,20 +2458,20 @@
         <v>2203</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C38,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スネーク</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2512,11 +2512,11 @@
         <v>2203</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2539,11 +2539,11 @@
         <v>2203</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C41,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スネーク</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2555,34 +2555,34 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B42">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2593,20 +2593,20 @@
         <v>2204</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C43,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2647,11 +2647,11 @@
         <v>2204</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2674,11 +2674,11 @@
         <v>2204</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C46,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2690,34 +2690,34 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B47">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C47,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>スケルトン</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2728,20 +2728,20 @@
         <v>2205</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C48,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         <v>2205</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2809,11 +2809,11 @@
         <v>2205</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C51,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2825,34 +2825,34 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>2205</v>
+        <v>3041</v>
       </c>
       <c r="B52">
-        <v>2205</v>
+        <v>3041</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C52,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2863,20 +2863,20 @@
         <v>3041</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>オーク</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2890,11 +2890,11 @@
         <v>3041</v>
       </c>
       <c r="C54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
-        <v>オーク</v>
+        <v>インプ</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2917,11 +2917,11 @@
         <v>3041</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C55,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2938,23 +2938,23 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B56">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C56,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>バット</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2971,17 +2971,17 @@
         <v>3042</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2998,11 +2998,11 @@
         <v>3042</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>スネーク</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3025,11 +3025,11 @@
         <v>3042</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C59,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スケルトン</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -3046,26 +3046,26 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>3042</v>
+        <v>3101</v>
       </c>
       <c r="B60">
-        <v>3042</v>
+        <v>3101</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C60,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>シルフ</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3079,20 +3079,20 @@
         <v>3101</v>
       </c>
       <c r="C61">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>スライム</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3106,11 +3106,11 @@
         <v>3101</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B63">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C63,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>シルフ</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3160,20 +3160,20 @@
         <v>3102</v>
       </c>
       <c r="C64">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C64,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>スライム</v>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3187,11 +3187,11 @@
         <v>3102</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E65">
         <v>15</v>
@@ -3200,40 +3200,40 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" ht="12" customHeight="1" spans="1:8">
       <c r="A66">
-        <v>3102</v>
-      </c>
-      <c r="B66">
-        <v>3102</v>
+        <v>4041</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4041</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="12" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>4041</v>
       </c>
@@ -3241,17 +3241,17 @@
         <v>4041</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C67,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3295,11 +3295,11 @@
         <v>4041</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C69,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ゴースト</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3342,27 +3342,27 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71">
-        <v>4041</v>
+      <c r="A71" s="2">
+        <v>4042</v>
       </c>
       <c r="B71" s="2">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C71,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ホーネット</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3376,20 +3376,20 @@
         <v>4042</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C72,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3403,11 +3403,11 @@
         <v>4042</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C73,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>インプ</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -3457,11 +3457,11 @@
         <v>4042</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C75,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ホーネット</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3470,31 +3470,31 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="2">
-        <v>4042</v>
-      </c>
-      <c r="B76" s="2">
-        <v>4042</v>
+      <c r="A76">
+        <v>4101</v>
+      </c>
+      <c r="B76">
+        <v>4101</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="D76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C76,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>イヴィルキング</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="B77">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="C77">
         <v>104</v>
@@ -3518,7 +3518,7 @@
         <v>イヴィルキング</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3532,20 +3532,20 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>4102</v>
+        <v>5041</v>
       </c>
       <c r="B78">
-        <v>4102</v>
+        <v>5041</v>
       </c>
       <c r="C78">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C78,[1]TextData!A:A))</f>
-        <v>イヴィルキング</v>
+        <v>スケルトン</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3572,13 +3572,13 @@
         <v>スケルトン</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3619,11 +3619,11 @@
         <v>5041</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C81,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>スライム</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3666,24 +3666,24 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83">
-        <v>5041</v>
-      </c>
-      <c r="B83">
-        <v>5041</v>
+      <c r="A83" s="2">
+        <v>5042</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5042</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スパイダー</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3700,20 +3700,20 @@
         <v>5042</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E84">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3727,11 +3727,11 @@
         <v>5042</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -3754,11 +3754,11 @@
         <v>5042</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C86,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3801,27 +3801,27 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="2">
-        <v>5042</v>
-      </c>
-      <c r="B88" s="2">
-        <v>5042</v>
+      <c r="A88">
+        <v>5101</v>
+      </c>
+      <c r="B88">
+        <v>5101</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3835,20 +3835,20 @@
         <v>5101</v>
       </c>
       <c r="C89">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3862,11 +3862,11 @@
         <v>5101</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -3889,11 +3889,11 @@
         <v>5101</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3916,11 +3916,11 @@
         <v>5101</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ゴースト</v>
       </c>
       <c r="E92">
         <v>10</v>
@@ -3937,26 +3937,26 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="B93">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3970,20 +3970,20 @@
         <v>5102</v>
       </c>
       <c r="C94">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3997,11 +3997,11 @@
         <v>5102</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -4024,11 +4024,11 @@
         <v>5102</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -4051,11 +4051,11 @@
         <v>5102</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ゴースト</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -4072,26 +4072,26 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>5102</v>
+        <v>6021</v>
       </c>
       <c r="B98">
-        <v>5102</v>
+        <v>6021</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>1002</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>エリザベート</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4105,20 +4105,20 @@
         <v>6021</v>
       </c>
       <c r="C99">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
-        <v>エリザベート</v>
+        <v>アリエス</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         <v>6021</v>
       </c>
       <c r="C100">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
-        <v>アリエス</v>
+        <v>シイナ</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4159,11 +4159,11 @@
         <v>6021</v>
       </c>
       <c r="C101">
-        <v>1004</v>
+        <v>8</v>
       </c>
       <c r="D101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
-        <v>シイナ</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4186,11 +4186,11 @@
         <v>6021</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4207,23 +4207,23 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="B103">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="D103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>セリナ</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4240,17 +4240,17 @@
         <v>6022</v>
       </c>
       <c r="C104">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
-        <v>セリナ</v>
+        <v>レダ</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -4267,11 +4267,11 @@
         <v>6022</v>
       </c>
       <c r="C105">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
-        <v>レダ</v>
+        <v>メリアドール</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4294,11 +4294,11 @@
         <v>6022</v>
       </c>
       <c r="C106">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
-        <v>メリアドール</v>
+        <v>マッドプラント</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4321,11 +4321,11 @@
         <v>6022</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
-        <v>マッドプラント</v>
+        <v>インプ</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4342,23 +4342,23 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>6022</v>
+        <v>6031</v>
       </c>
       <c r="B108">
-        <v>6022</v>
+        <v>6031</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>1001</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ミカ</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4375,17 +4375,17 @@
         <v>6031</v>
       </c>
       <c r="C109">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
-        <v>ミカ</v>
+        <v>リシェリ</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4402,11 +4402,11 @@
         <v>6031</v>
       </c>
       <c r="C110">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
-        <v>リシェリ</v>
+        <v>マリーベル</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4429,11 +4429,11 @@
         <v>6031</v>
       </c>
       <c r="C111">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
-        <v>マリーベル</v>
+        <v>ユニ</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4456,11 +4456,11 @@
         <v>6031</v>
       </c>
       <c r="C112">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
-        <v>ユニ</v>
+        <v>ナツキ</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4477,26 +4477,26 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>6031</v>
+        <v>6101</v>
       </c>
       <c r="B113">
-        <v>6031</v>
+        <v>6101</v>
       </c>
       <c r="C113">
-        <v>1009</v>
+        <v>201</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
-        <v>ナツキ</v>
+        <v>アンリマユ</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4510,20 +4510,20 @@
         <v>6101</v>
       </c>
       <c r="C114">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
-        <v>アンリマユ</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4537,11 +4537,11 @@
         <v>6101</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>ゴースト</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4564,11 +4564,11 @@
         <v>6101</v>
       </c>
       <c r="C116">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4591,11 +4591,11 @@
         <v>6101</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>オーク</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4607,33 +4607,6 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118">
-        <v>6101</v>
-      </c>
-      <c r="B118">
-        <v>6101</v>
-      </c>
-      <c r="C118">
-        <v>13</v>
-      </c>
-      <c r="D118" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C118,[1]TextData!A:A))</f>
-        <v>オーク</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -49,118 +49,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,9 +70,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +87,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -199,8 +102,105 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +215,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,67 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,43 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +406,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,26 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +495,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,7 +514,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,7 +523,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,127 +532,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1885,23 +1885,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>2041</v>
+        <v>2011</v>
       </c>
       <c r="B17">
-        <v>2041</v>
+        <v>2011</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>バット</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2041</v>
+        <v>2011</v>
       </c>
       <c r="B18">
-        <v>2041</v>
+        <v>2011</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>バット</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1939,20 +1939,20 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="B19">
-        <v>2041</v>
+        <v>2021</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>バット</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1966,23 +1966,23 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="B20">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1993,23 +1993,23 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="B21">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2020,20 +2020,20 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2042</v>
+        <v>2101</v>
       </c>
       <c r="B22">
-        <v>2042</v>
+        <v>2101</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>バット</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>ミノタウロス</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2080,14 +2080,14 @@
         <v>2101</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>バット</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>0</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +59,43 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,18 +107,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,24 +123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,21 +132,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,16 +161,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,23 +192,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,7 +215,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,151 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +287,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,9 +411,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,8 +468,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,41 +506,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1763,7 +1763,7 @@
         <v>スライム</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>ホーネット</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>スライム</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>ホーネット</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>ベヒーモス</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>バット</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>バット</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>バット</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>ビッグラット</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>スコーピオン</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>バット</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>ミノタウロス</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>1</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -62,8 +62,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,6 +73,72 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,67 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +169,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,13 +227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,19 +245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +305,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,37 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,17 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,26 +450,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,15 +479,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +497,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,7 +514,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,7 +523,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,127 +532,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,10 +1439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="B18">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1925,7 +1925,7 @@
         <v>バット</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1945,11 +1945,11 @@
         <v>2021</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1966,23 +1966,23 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="B20">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1993,23 +1993,23 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2031</v>
+        <v>2101</v>
       </c>
       <c r="B21">
-        <v>2031</v>
+        <v>2101</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>バット</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2026,17 +2026,17 @@
         <v>2101</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2053,17 +2053,17 @@
         <v>2101</v>
       </c>
       <c r="C23">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>バット</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2074,23 +2074,23 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B24">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ミノタウロス</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2107,17 +2107,17 @@
         <v>2102</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
-        <v>ミノタウロス</v>
+        <v>スパイダー</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2128,26 +2128,26 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>2102</v>
+        <v>2201</v>
       </c>
       <c r="B26">
-        <v>2102</v>
+        <v>2201</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C26,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2161,20 +2161,20 @@
         <v>2201</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2215,11 +2215,11 @@
         <v>2201</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C29,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ゼリーフィッシュ</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2242,11 +2242,11 @@
         <v>2201</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C30,[1]TextData!A:A))</f>
-        <v>ゼリーフィッシュ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,34 +2258,34 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B31">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2296,20 +2296,20 @@
         <v>2202</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ホーネット</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2350,11 +2350,11 @@
         <v>2202</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C34,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2377,11 +2377,11 @@
         <v>2202</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>ホーネット</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2393,34 +2393,34 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B36">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C36,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2431,20 +2431,20 @@
         <v>2203</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スネーク</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2485,11 +2485,11 @@
         <v>2203</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C39,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2512,11 +2512,11 @@
         <v>2203</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スネーク</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2528,34 +2528,34 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B41">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C41,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2566,20 +2566,20 @@
         <v>2204</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2620,11 +2620,11 @@
         <v>2204</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C44,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2647,11 +2647,11 @@
         <v>2204</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2663,34 +2663,34 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B46">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C46,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>スケルトン</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2701,20 +2701,20 @@
         <v>2205</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C47,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2755,11 +2755,11 @@
         <v>2205</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C49,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2782,11 +2782,11 @@
         <v>2205</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>バット</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2798,34 +2798,34 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>2205</v>
+        <v>3041</v>
       </c>
       <c r="B51">
-        <v>2205</v>
+        <v>3041</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C51,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2836,20 +2836,20 @@
         <v>3041</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C52,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>オーク</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2863,11 +2863,11 @@
         <v>3041</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
-        <v>オーク</v>
+        <v>インプ</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2890,11 +2890,11 @@
         <v>3041</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2911,23 +2911,23 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="B55">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C55,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>バット</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2944,17 +2944,17 @@
         <v>3042</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C56,[1]TextData!A:A))</f>
-        <v>バット</v>
+        <v>スケルトン</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2971,11 +2971,11 @@
         <v>3042</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>スネーク</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -2998,11 +2998,11 @@
         <v>3042</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
-        <v>スネーク</v>
+        <v>スケルトン</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3019,26 +3019,26 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>3042</v>
+        <v>3101</v>
       </c>
       <c r="B59">
-        <v>3042</v>
+        <v>3101</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C59,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>シルフ</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3052,20 +3052,20 @@
         <v>3101</v>
       </c>
       <c r="C60">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C60,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>スライム</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3079,11 +3079,11 @@
         <v>3101</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3100,23 +3100,23 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B62">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>シルフ</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -3133,20 +3133,20 @@
         <v>3102</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C63,[1]TextData!A:A))</f>
-        <v>シルフ</v>
+        <v>スライム</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3160,11 +3160,11 @@
         <v>3102</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C64,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E64">
         <v>15</v>
@@ -3173,40 +3173,40 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" ht="12" customHeight="1" spans="1:8">
       <c r="A65">
-        <v>3102</v>
-      </c>
-      <c r="B65">
-        <v>3102</v>
+        <v>4041</v>
+      </c>
+      <c r="B65" s="2">
+        <v>4041</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="12" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>4041</v>
       </c>
@@ -3214,17 +3214,17 @@
         <v>4041</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3268,11 +3268,11 @@
         <v>4041</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C68,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>ゴースト</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3315,27 +3315,27 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70">
-        <v>4041</v>
+      <c r="A70" s="2">
+        <v>4042</v>
       </c>
       <c r="B70" s="2">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C70,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ホーネット</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3349,20 +3349,20 @@
         <v>4042</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C71,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3376,11 +3376,11 @@
         <v>4042</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C72,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>インプ</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -3430,11 +3430,11 @@
         <v>4042</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C74,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ホーネット</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -3443,31 +3443,31 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="2">
-        <v>4042</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4042</v>
+      <c r="A75">
+        <v>4101</v>
+      </c>
+      <c r="B75">
+        <v>4101</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C75,[1]TextData!A:A))</f>
-        <v>ホーネット</v>
+        <v>イヴィルキング</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3478,10 +3478,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="B76">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="C76">
         <v>104</v>
@@ -3491,7 +3491,7 @@
         <v>イヴィルキング</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3505,20 +3505,20 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>4102</v>
+        <v>5041</v>
       </c>
       <c r="B77">
-        <v>4102</v>
+        <v>5041</v>
       </c>
       <c r="C77">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="D77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C77,[1]TextData!A:A))</f>
-        <v>イヴィルキング</v>
+        <v>スケルトン</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3545,13 +3545,13 @@
         <v>スケルトン</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3592,11 +3592,11 @@
         <v>5041</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C80,[1]TextData!A:A))</f>
-        <v>スケルトン</v>
+        <v>スライム</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3639,24 +3639,24 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82">
-        <v>5041</v>
-      </c>
-      <c r="B82">
-        <v>5041</v>
+      <c r="A82" s="2">
+        <v>5042</v>
+      </c>
+      <c r="B82" s="2">
+        <v>5042</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C82,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スパイダー</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3673,20 +3673,20 @@
         <v>5042</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ウィスプ</v>
       </c>
       <c r="E83">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3700,11 +3700,11 @@
         <v>5042</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
-        <v>ウィスプ</v>
+        <v>インプ</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3727,11 +3727,11 @@
         <v>5042</v>
       </c>
       <c r="C85">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>スパイダー</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3774,27 +3774,27 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="2">
-        <v>5042</v>
-      </c>
-      <c r="B87" s="2">
-        <v>5042</v>
+      <c r="A87">
+        <v>5101</v>
+      </c>
+      <c r="B87">
+        <v>5101</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C87,[1]TextData!A:A))</f>
-        <v>スパイダー</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3808,20 +3808,20 @@
         <v>5101</v>
       </c>
       <c r="C88">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3835,11 +3835,11 @@
         <v>5101</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E89">
         <v>10</v>
@@ -3862,11 +3862,11 @@
         <v>5101</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E90">
         <v>10</v>
@@ -3889,11 +3889,11 @@
         <v>5101</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ゴースト</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -3910,26 +3910,26 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="B92">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ケルベロス</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3943,20 +3943,20 @@
         <v>5102</v>
       </c>
       <c r="C93">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
-        <v>ケルベロス</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3970,11 +3970,11 @@
         <v>5102</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -3997,11 +3997,11 @@
         <v>5102</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -4024,11 +4024,11 @@
         <v>5102</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ゴースト</v>
       </c>
       <c r="E96">
         <v>20</v>
@@ -4045,26 +4045,26 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>5102</v>
+        <v>6021</v>
       </c>
       <c r="B97">
-        <v>5102</v>
+        <v>6021</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>1002</v>
       </c>
       <c r="D97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>エリザベート</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4078,20 +4078,20 @@
         <v>6021</v>
       </c>
       <c r="C98">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
-        <v>エリザベート</v>
+        <v>アリエス</v>
       </c>
       <c r="E98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4105,11 +4105,11 @@
         <v>6021</v>
       </c>
       <c r="C99">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
-        <v>アリエス</v>
+        <v>シイナ</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4132,11 +4132,11 @@
         <v>6021</v>
       </c>
       <c r="C100">
-        <v>1004</v>
+        <v>8</v>
       </c>
       <c r="D100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
-        <v>シイナ</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4159,11 +4159,11 @@
         <v>6021</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>スライム</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4180,23 +4180,23 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="B102">
-        <v>6021</v>
+        <v>6022</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="D102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
-        <v>スライム</v>
+        <v>セリナ</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4213,17 +4213,17 @@
         <v>6022</v>
       </c>
       <c r="C103">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
-        <v>セリナ</v>
+        <v>レダ</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4240,11 +4240,11 @@
         <v>6022</v>
       </c>
       <c r="C104">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
-        <v>レダ</v>
+        <v>メリアドール</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4267,11 +4267,11 @@
         <v>6022</v>
       </c>
       <c r="C105">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
-        <v>メリアドール</v>
+        <v>マッドプラント</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4294,11 +4294,11 @@
         <v>6022</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
-        <v>マッドプラント</v>
+        <v>インプ</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4315,23 +4315,23 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>6022</v>
+        <v>6031</v>
       </c>
       <c r="B107">
-        <v>6022</v>
+        <v>6031</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>1001</v>
       </c>
       <c r="D107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ミカ</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4348,17 +4348,17 @@
         <v>6031</v>
       </c>
       <c r="C108">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
-        <v>ミカ</v>
+        <v>リシェリ</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -4375,11 +4375,11 @@
         <v>6031</v>
       </c>
       <c r="C109">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
-        <v>リシェリ</v>
+        <v>マリーベル</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4402,11 +4402,11 @@
         <v>6031</v>
       </c>
       <c r="C110">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
-        <v>マリーベル</v>
+        <v>ユニ</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4429,11 +4429,11 @@
         <v>6031</v>
       </c>
       <c r="C111">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
-        <v>ユニ</v>
+        <v>ナツキ</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4450,26 +4450,26 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>6031</v>
+        <v>6101</v>
       </c>
       <c r="B112">
-        <v>6031</v>
+        <v>6101</v>
       </c>
       <c r="C112">
-        <v>1009</v>
+        <v>201</v>
       </c>
       <c r="D112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
-        <v>ナツキ</v>
+        <v>アンリマユ</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4483,20 +4483,20 @@
         <v>6101</v>
       </c>
       <c r="C113">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
-        <v>アンリマユ</v>
+        <v>ゲイザー</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4510,11 +4510,11 @@
         <v>6101</v>
       </c>
       <c r="C114">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
-        <v>ゲイザー</v>
+        <v>ゴースト</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4537,11 +4537,11 @@
         <v>6101</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
-        <v>ゴースト</v>
+        <v>ビッグラット</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -4564,11 +4564,11 @@
         <v>6101</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
-        <v>ビッグラット</v>
+        <v>オーク</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4580,33 +4580,6 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117">
-        <v>6101</v>
-      </c>
-      <c r="B117">
-        <v>6101</v>
-      </c>
-      <c r="C117">
-        <v>13</v>
-      </c>
-      <c r="D117" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
-        <v>オーク</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,9 +70,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,53 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +138,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +167,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,10 +191,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,7 +221,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,97 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,67 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,17 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,15 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +480,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -514,145 +514,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1442,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1871,7 +1871,7 @@
         <v>ベヒーモス</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1</v>
